--- a/amazon_kids_full_features.xlsx
+++ b/amazon_kids_full_features.xlsx
@@ -471,114 +471,114 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Item part number</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Country of Origin</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Packer</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Item Weight</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Item Dimensions LxWxH</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Included Components</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Generic Name</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Best Sellers Rank</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Reviews</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>About</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Item model number</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Country of Origin</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Department</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Packer</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Item Weight</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Item Dimensions LxWxH</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Net Quantity</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Generic Name</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Best Sellers Rank</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Customer Reviews</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>About</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Item part number</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Included Components</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Naixa-Fabric-Floral-Printed-Sharara/dp/B0CW9JVHN6/ref=sr_1_5</t>
+          <t>https://www.amazon.in/Badshah-Dressesn-Straight-Dupatta-Suitable/dp/B0CZ7GQP7B/ref=sr_1_5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Naixa Girls Rayon Fabric Floral Printed 3/4 Sleeve Sharara Dress Set For All Occasion salwar suit</t>
+          <t>New Badshah Dressesn Ethnic Kids Girls Kurta Straight Pant with Silky Dupatta Dress Set, Cotton Rayon Fabric</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41aC2cVGFAL._SY445_SX342_QL70_ML2_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/416Hih0ryfL._SY445_SX342_QL70_ML2_.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>‎ 20 x 15 x 5 cm; 250 g</t>
+          <t>‎ 33.02 x 27.94 x 10.16 cm; 250 g</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>‎ 23 February 2024</t>
+          <t>‎ 27 March 2024</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>‎ Naixa, Naixa</t>
+          <t>‎ 8210850165, New Badshah Dresses</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>‎ B0CW9JVHN6</t>
+          <t>‎ B0CZ7GQP7B</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>‎ NX02_YELLOW</t>
+          <t>‎ SN DEEP_Pink 7-8 Years</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -593,44 +593,40 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>‎ Naixa</t>
+          <t>‎ New Badshah Dresses</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>‎ Naixa</t>
+          <t>‎ 250 g</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>‎ 250 g</t>
+          <t>‎ 33 x 27.9 x 10.2 Centimeters</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>‎ 20 x 15 x 5 Centimeters</t>
+          <t>‎ Kurta, Scarf, Shorts, Skirt</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>‎ 1.0 Count</t>
+          <t>‎ KURTI SET</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>‎ Sharara Set</t>
+          <t>#21,268 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #81 in Girls' Salwar Suit Sets</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>#2,075 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #3 in Girls' Salwar Suit Sets</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>4.1 4.1 out of 5 stars (1,329)</t>
-        </is>
-      </c>
+          <t>4.0 4.0 out of 5 stars (54)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
@@ -638,37 +634,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Badshah-Dressesn-Straight-Dupatta-Suitable/dp/B0CZ7GQP7B/ref=sr_1_6</t>
+          <t>https://www.amazon.in/Naixa-Fabric-Floral-Printed-Sharara/dp/B0CW9JVHN6/ref=sr_1_6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New Badshah Dressesn Ethnic Kids Girls Kurta Straight Pant with Silky Dupatta Dress Set, Cotton Rayon Fabric</t>
+          <t>Naixa Girls Rayon Fabric Floral Printed 3/4 Sleeve Sharara Dress Set For All Occasion salwar suit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/416Hih0ryfL._SY445_SX342_QL70_ML2_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41aC2cVGFAL._SY445_SX342_QL70_ML2_.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>‎ 33.02 x 27.94 x 10.16 cm; 250 g</t>
+          <t>‎ 20 x 15 x 5 cm; 250 g</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>‎ 27 March 2024</t>
+          <t>‎ 23 February 2024</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>‎ 8210850165, New Badshah Dresses</t>
+          <t>‎ Naixa, Naixa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>‎ B0CZ7GQP7B</t>
+          <t>‎ B0CW9JVHN6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -684,87 +680,91 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>‎ New Badshah Dresses</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>‎ Naixa</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>‎ 250 g</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>‎ 250 g</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>‎ 33 x 27.9 x 10.2 Centimeters</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>‎ 20 x 15 x 5 Centimeters</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>‎ Sharara Set</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>‎ KURTI SET</t>
+          <t>#2,075 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #3 in Girls' Salwar Suit Sets</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>#21,268 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #81 in Girls' Salwar Suit Sets</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>4.0 4.0 out of 5 stars (54)</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
+          <t>4.1 4.1 out of 5 stars (1,329)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>‎ NX02_YELLOW</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>‎ SN DEEP_Pink 7-8 Years</t>
+          <t>‎ Naixa</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>‎ Kurta, Scarf, Shorts, Skirt</t>
+          <t>‎ 1.0 Count</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/White-Button-jacket-indowestern-Years/dp/B0D7S5Q67Z/ref=sr_1_7</t>
+          <t>https://www.amazon.in/MITUKART-Printed-Sharara-Dupatta-traditional/dp/B0GG4WM5LN/ref=sr_1_7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>White Button new lemon sequence work with floral print jacket style indowestern palazzo set for girls</t>
+          <t>Kid's Printed Silk Kurta and Sharara with Dupatta Set | Printed Salwar Suit Set for Girls | Ethnic wear traditional Dress for kids girls</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/31Tb1lKVmDL._SY445_SX342_QL70_ML2_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41ENa2JAKWL._SY445_SX342_QL70_ML2_.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>‎ 18 x 16 x 3 cm; 350 g</t>
+          <t>‎ 10 x 10 x 5 cm; 300 g</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>‎ 21 June 2024</t>
+          <t>‎ 10 January 2026</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>‎ White Button, white button</t>
+          <t>‎ MITUKART</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>‎ B0D7S5Q67Z</t>
+          <t>‎ B0GG4WM5LN</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>‎ Mustard jacket plazo-9-10 Years</t>
+          <t>‎ 001</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -774,45 +774,45 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>‎ girls</t>
+          <t>‎ Girls</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>‎ white button</t>
+          <t>‎ MITUKART</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>‎ White Button</t>
+          <t>‎ 300 g</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>‎ 350 g</t>
+          <t>‎ 10 x 10 x 5 Centimeters</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>‎ 18 x 16 x 3 Centimeters</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
+          <t>‎ With Dupatta</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>‎ Girl's Salwar Suit</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>‎ Plazzo set</t>
+          <t>#31,208 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #95 in Girls' Salwar Suit Sets</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>#2,832 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #8 in Girls' Clothing Sets</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>4.0 4.0 out of 5 stars (390)</t>
-        </is>
-      </c>
+          <t>2.0 2.0 out of 5 stars (1)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
@@ -820,37 +820,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MITUKART-Printed-Sharara-Dupatta-traditional/dp/B0GG4WM5LN/ref=sr_1_8</t>
+          <t>https://www.amazon.in/White-Button-jacket-indowestern-Years/dp/B0D7S5Q67Z/ref=sr_1_8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kid's Printed Silk Kurta and Sharara with Dupatta Set | Printed Salwar Suit Set for Girls | Ethnic wear traditional Dress for kids girls</t>
+          <t>White Button new lemon sequence work with floral print jacket style indowestern palazzo set for girls</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41ENa2JAKWL._SY445_SX342_QL70_ML2_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/31Tb1lKVmDL._SY445_SX342_QL70_ML2_.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>‎ 10 x 10 x 5 cm; 300 g</t>
+          <t>‎ 18 x 16 x 3 cm; 350 g</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>‎ 10 January 2026</t>
+          <t>‎ 21 June 2024</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>‎ MITUKART</t>
+          <t>‎ White Button, white button</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>‎ B0GG4WM5LN</t>
+          <t>‎ B0D7S5Q67Z</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -861,52 +861,52 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>‎ Girls</t>
+          <t>‎ girls</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>‎ MITUKART</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>‎ white button</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>‎ 350 g</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>‎ 300 g</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>‎ 10 x 10 x 5 Centimeters</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
+          <t>‎ 18 x 16 x 3 Centimeters</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>‎ Plazzo set</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>‎ Girl's Salwar Suit</t>
+          <t>#2,832 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #8 in Girls' Clothing Sets</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>#31,208 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #95 in Girls' Salwar Suit Sets</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>2.0 2.0 out of 5 stars (1)</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>4.0 4.0 out of 5 stars (390)</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>‎ Mustard jacket plazo-9-10 Years</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>‎ 001</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>‎ With Dupatta</t>
-        </is>
-      </c>
+          <t>‎ White Button</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -944,60 +944,60 @@
           <t>‎ B0FV3GTS9L</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>‎ India</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>‎ Baby Girls</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>‎ VKNP Designs Pvt. Ltd, Plot No. 339, Udyod Vihar Phase-4, Gurgaon, Haryana, 122015</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>‎ 180 g</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>‎ 20 x 12 x 2 Centimeters</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>‎ Lehenga Choli Set</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>#1,524 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #1 in Baby Girls' Ethnic Lehenga Cholis</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>3.8 3.8 out of 5 stars (39)</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
         <is>
           <t>‎ GLHG FLO YLW_18-24M-Yellow</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>‎ India</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>‎ Baby Girls</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>‎ VKNP Designs Pvt. Ltd, Plot No. 339, Udyod Vihar Phase-4, Gurgaon, Haryana, 122015</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>‎ 180 g</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>‎ 20 x 12 x 2 Centimeters</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
         <is>
           <t>‎ 3.00 Count</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>‎ Lehenga Choli Set</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>#1,524 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #1 in Baby Girls' Ethnic Lehenga Cholis</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>3.8 3.8 out of 5 stars (39)</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1035,7 +1035,11 @@
           <t>‎ B0DDH5G43Y</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>‎ 1-Standwal-RINGANI12Y</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>‎ India</t>
@@ -1051,44 +1055,40 @@
           <t>‎ 1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>‎ 320 g</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>‎ 320 g</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
           <t>‎ 25 x 14 x 3 Centimeters</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
+          <t>‎ Baby Girls Lehenga Choli</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>#3,008 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #5 in Girls' Lehenga Cholis</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>4.4 4.4 out of 5 stars (396)</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>‎ 1.0 Count</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>‎ Baby Girls Lehenga Choli</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>#3,008 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #5 in Girls' Lehenga Cholis</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>4.4 4.4 out of 5 stars (396)</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>‎ 1-Standwal-RINGANI12Y</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1126,7 +1126,11 @@
           <t>‎ B0DC4JHP9D</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>‎ Narmada 24</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>‎ India</t>
@@ -1142,39 +1146,35 @@
           <t>‎ Delima Fashion , delimafashion24@gmail.com , +91 98796 47980</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>‎ 380 g</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>‎ 380 g</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
           <t>‎ 23 x 23 x 3 Centimeters</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>‎ Lehenga choli</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>‎ Lehenga choli</t>
+          <t>#10,246 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #22 in Girls' Lehenga Cholis</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>#10,246 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #22 in Girls' Lehenga Cholis</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
           <t>4.2 4.2 out of 5 stars (148)</t>
         </is>
       </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>‎ Narmada 24</t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1213,66 +1213,66 @@
           <t>‎ B0CTMQF72N</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>‎ India</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>‎ Girls</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>‎ Angel f Studio</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>‎ 460 g</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>‎ 15 x 15 x 3 Centimeters</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>‎ Kurta, Pants, Scarf</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>‎ Palazzo Set</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>#7,901 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #12 in Girls' Salwar Suit Sets</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>3.8 3.8 out of 5 stars (134)</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
         <is>
           <t>‎ B0CTMQF72N</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>‎ India</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>‎ Girls</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>‎ Angel f Studio</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>‎ Angel f Studio</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>‎ 460 g</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>‎ 15 x 15 x 3 Centimeters</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>‎ 1.00 Count</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>‎ Palazzo Set</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>#7,901 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #12 in Girls' Salwar Suit Sets</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>3.8 3.8 out of 5 stars (134)</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>‎ Kurta, Pants, Scarf</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,11 @@
           <t>‎ B0G2CHRSPL</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>‎ ED-BLK-SD-048-28</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>‎ India</t>
@@ -1328,86 +1332,86 @@
           <t>‎ Spam Fashion</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>‎ 300 g</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>‎ 300 g</t>
+          <t>‎ 20 x 16 x 4 Centimeters</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>‎ 20 x 16 x 4 Centimeters</t>
+          <t>‎ Dupatta, Kurta, Skirt</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>‎ Kurta, Skirt and Dupatta Set</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>#7,368 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #22 in Girls' Salwar Suit Sets</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>4.3 4.3 out of 5 stars (6)</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>‎ 1 Count</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>‎ Kurta, Skirt and Dupatta Set</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>#7,368 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #22 in Girls' Salwar Suit Sets</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>4.3 4.3 out of 5 stars (6)</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>‎ ED-BLK-SD-048-28</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>‎ Dupatta, Kurta, Skirt</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/FELIZ-DESIGNER-STUDIO-Embroidery-Traditional/dp/B0DX6N8WY2/ref=sr_1_14</t>
+          <t>https://www.amazon.in/Spangel-Fashion-Embroidered-Jacquard-Dupatta/dp/B0GD7QMK55/ref=sr_1_14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FELIZ THE DESIGNER STUDIO Kids Embroidery South Indian Traditional Pattu Pavadai Silk Blend Readymade Lehenga Choli Dress For Girls</t>
+          <t>Girls Ethnic Outfit | Embroidered Silk Girls Salwar Suit | Kurta Pant and Jacquard Dupatta Set</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41UbIJvN7+L._SX342_SY445_QL70_ML2_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/31lZcFO9A0L._SY445_SX342_QL70_ML2_.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>‎ 37 x 15 x 5 cm; 380 g</t>
+          <t>‎ 2 x 2 x 2 cm; 350 g</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>‎ 14 February 2025</t>
+          <t>‎ 29 November 2025</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>‎ FELIZ THE DESIGNER STUDII-7574013540, FELIZ THE DESIGNER STUDIO</t>
+          <t>‎ Spangel Fashion,Surat</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>‎ B0DX6N8WY2</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>‎ B0GD7QMK55</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>‎ Kids Green Dori</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>‎ India</t>
@@ -1420,51 +1424,47 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>‎ FELIZ THE DESIGNER STUDIO-7574013540</t>
+          <t>‎ Spangel Fashion,Surat</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>‎ FTDS-7574013540</t>
+          <t>‎ 350 g</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>‎ 380 g</t>
+          <t>‎ 20 x 20 x 20 Millimeters</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>‎ 37 x 15 x 5 Centimeters</t>
+          <t>‎ With Dupatta</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>‎ 13.0 Count</t>
+          <t>‎ Pant</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>‎ Lehenga Choli</t>
+          <t>#5,270 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #5 in Girls' Salwar Suit Sets</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>#3,722 in Clothing &amp; Accessories ( See Top 100 in Clothing &amp; Accessories ) #7 in Girls' Lehenga Cholis</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>4.3 4.3 out of 5 stars (114)</t>
-        </is>
-      </c>
+          <t>4.4 4.4 out of 5 stars (8)</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>‎ YW-BUTTER-CHOLI- 3-4</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>‎ 3 Count</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
